--- a/data/income_statement/1digit/total/J_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/J_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>J-Information and communication</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>J-Information and communication</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>42540187.93214</v>
+        <v>42540187.93214001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>46932019.12158001</v>
+        <v>46932019.12158</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>53764469.87141</v>
+        <v>53764482.46382</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>58520229.40832999</v>
+        <v>58525728.54361</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>66537796.98823</v>
+        <v>66596820.3921</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>72373198.49038</v>
+        <v>72520501.55199</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>77312436.05430999</v>
+        <v>83351609.93979003</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>85977807.48479998</v>
+        <v>95675931.45937</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>115030533.12927</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>137184303.53859</v>
+        <v>137302359.80188</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>161141465.72834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>162027837.77597</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>200873626.713</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>39531578.57418</v>
@@ -995,40 +906,45 @@
         <v>44231027.06269</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>50611612.97328001</v>
+        <v>50611625.56569</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>54750035.70251</v>
+        <v>54755450.33476999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>62417163.04625999</v>
+        <v>62465071.22531999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>67394923.44532</v>
+        <v>67520288.32805</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>71744470.63201998</v>
+        <v>77278934.11693999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>80480505.15044998</v>
+        <v>89144293.25921001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>106435089.7542</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>125168510.68045</v>
+        <v>125272082.6377</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>144144200.57594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>144886050.34428</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>179198771.371</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2401591.158259999</v>
+        <v>2401591.15826</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>2175806.86118</v>
@@ -1037,37 +953,42 @@
         <v>2519989.66468</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3019670.395139999</v>
+        <v>3019670.39514</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3332487.20766</v>
+        <v>3343206.50748</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4026098.99226</v>
+        <v>4047471.915289999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4525134.56813</v>
+        <v>4800177.09171</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4407626.31156</v>
+        <v>5099287.853859999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>6984810.13583</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>10579644.13279</v>
+        <v>10591857.24217</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15525697.07574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15653113.26822</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>19639401.611</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>607018.1997</v>
+        <v>607018.1996999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>525185.1977100001</v>
@@ -1076,34 +997,39 @@
         <v>632867.2334500001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>750523.3106799999</v>
+        <v>750607.8137000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>788146.73431</v>
+        <v>788542.6592999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>952176.0527999999</v>
+        <v>952741.3086500001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1042830.85416</v>
+        <v>1272498.73114</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1089676.02279</v>
+        <v>1432350.3463</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1610633.23924</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1436148.72535</v>
+        <v>1438419.92201</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1471568.07666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1488674.16347</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2035453.731</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1313941.94024</v>
@@ -1115,76 +1041,86 @@
         <v>3052114.35046</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2765382.37892</v>
+        <v>2765611.15571</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3617479.99622</v>
+        <v>3617864.89784</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3540669.9466</v>
+        <v>3541533.25308</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4234560.421770001</v>
+        <v>4256344.01684</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5593980.12635</v>
+        <v>5644813.55315</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>8081246.492929999</v>
+        <v>8081246.492929998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>11283904.84282</v>
+        <v>11284853.54763</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>14496094.12509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14502834.15967</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>21915323.879</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>634951.8422300001</v>
+        <v>634951.84223</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>858666.72413</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>825349.7109299999</v>
+        <v>825349.7109300001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>928800.85563</v>
+        <v>929029.6324199999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1024384.12147</v>
+        <v>1024767.25209</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1193516.52648</v>
+        <v>1194243.3915</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1414089.07106</v>
+        <v>1430986.19072</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1591359.78341</v>
+        <v>1631455.97572</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1890335.43605</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2391144.62379</v>
+        <v>2392079.266919999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2698538.87262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2705044.58498</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3255314.744</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>658951.50508</v>
+        <v>658951.5050799999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>1703262.71025</v>
@@ -1196,31 +1132,36 @@
         <v>1779822.64775</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2493350.655840001</v>
+        <v>2493352.05184</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2242862.21095</v>
+        <v>2242997.05241</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2681323.12911</v>
+        <v>2686064.31907</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3816413.317450001</v>
+        <v>3827038.29966</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5965048.68715</v>
+        <v>5965048.687150001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8571677.115770001</v>
+        <v>8571677.115769999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>11493562.77841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11493679.09569</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>18316044.118</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>20038.59293</v>
@@ -1235,70 +1176,80 @@
         <v>56758.87554000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>99745.21891</v>
+        <v>99745.59391</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>104291.20917</v>
+        <v>104292.80917</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>139148.2216</v>
+        <v>139293.50705</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>186207.02549</v>
+        <v>186319.27777</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>225862.36973</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>321083.10326</v>
+        <v>321097.16494</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>303992.47406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>304110.479</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>343965.017</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>41226245.9919</v>
+        <v>41226245.99190001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>44351609.28022999</v>
+        <v>44351609.28023001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>50712355.52094999</v>
+        <v>50712368.11336</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>55754847.02940999</v>
+        <v>55760117.38789999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>62920316.99201</v>
+        <v>62978955.49425998</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>68832528.54378</v>
+        <v>68978968.29891001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>73077875.63253999</v>
+        <v>79095265.92295</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>80383827.35845001</v>
+        <v>90031117.90622002</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>106949286.63634</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>125900398.69577</v>
+        <v>126017506.25425</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>146645371.60325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>147525003.6163</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>178958302.834</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>25113575.46345</v>
@@ -1310,34 +1261,39 @@
         <v>32988471.26859</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>36356743.22480001</v>
+        <v>36359766.84381001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>41840635.06462</v>
+        <v>41885909.89800001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>46046677.22966</v>
+        <v>46155325.92586999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>49600671.09852</v>
+        <v>54796466.06335999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>55834664.40129</v>
+        <v>62306822.17808</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>73707856.11514001</v>
+        <v>73707856.11513999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>85488075.23712</v>
+        <v>85577068.14493001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>96084938.14303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>96771699.35170999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>116437430.484</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1737356.53328</v>
@@ -1352,31 +1308,36 @@
         <v>2105460.17621</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2195193.32828</v>
+        <v>2195957.65896</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2290698.56464</v>
+        <v>2292679.9853</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2001989.1765</v>
+        <v>2006720.46157</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2218825.965270001</v>
+        <v>2231876.3375</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2625671.41882</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3369923.21279</v>
+        <v>3370471.44476</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3877155.2522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3906054.08358</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4246251.068</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>3233639.26366</v>
@@ -1388,34 +1349,39 @@
         <v>4921486.380519999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5061469.24534</v>
+        <v>5063958.1309</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6431532.441980001</v>
+        <v>6442785.863429999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6796111.297509999</v>
+        <v>6863863.86231</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>8787386.12858</v>
+        <v>8948648.994350001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>10554582.31201</v>
+        <v>10945806.95959</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>13277069.91708</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>15445551.06826</v>
+        <v>15490142.09215</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>16836068.98207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17176186.30941</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>23395214.788</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>19969591.86691</v>
@@ -1427,34 +1393,39 @@
         <v>26044897.02329</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>29088450.02594</v>
+        <v>29088984.75939</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>33105646.11476</v>
+        <v>33138806.76879</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>36784378.17399</v>
+        <v>36823292.88474</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>38679557.74186</v>
+        <v>43708922.28858</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>42928398.15192999</v>
+        <v>48996236.80274</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>57627060.98739</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>66188393.11426</v>
+        <v>66231925.52749</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>75038190.28322998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>75355238.57746001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>88451390.44599999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>172987.7996</v>
@@ -1469,31 +1440,36 @@
         <v>101363.77731</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>108263.1796</v>
+        <v>108359.60682</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>175489.19352</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>131738.05158</v>
+        <v>132174.31886</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>132857.97208</v>
+        <v>132902.07825</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>178053.79185</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>484207.8418100001</v>
+        <v>484529.08053</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>333523.62553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>334220.38126</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>344574.182</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>16112670.52845</v>
@@ -1502,37 +1478,42 @@
         <v>16329289.15399</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>17723884.25236</v>
+        <v>17723896.84477</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>19398103.80461</v>
+        <v>19400350.54409</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>21079681.92739</v>
+        <v>21093045.59626</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>22785851.31412</v>
+        <v>22823642.37304001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>23477204.53402</v>
+        <v>24298799.85959</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>24549162.95716</v>
+        <v>27724295.72814</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>33241430.5212</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>40412323.45865</v>
+        <v>40440438.10932</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>50560433.46022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>50753304.26459</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>62520872.35</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>11845304.89598</v>
@@ -1541,76 +1522,86 @@
         <v>12682904.41724</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>13976458.20494</v>
+        <v>13976470.05211</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>14137809.6699</v>
+        <v>14140072.5497</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>15532002.21414</v>
+        <v>15541306.72965</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>16886911.22473</v>
+        <v>16924502.7483</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>17431792.82587</v>
+        <v>18978009.63943</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>19729548.90953</v>
+        <v>22499452.00329</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>25530546.61249</v>
+        <v>25530546.61249001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>30812070.44158</v>
+        <v>30840406.60773</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>36664165.14175001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36799739.58323999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>41043583.841</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>325706.0160600001</v>
+        <v>325706.0160599999</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>373629.83667</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>446951.21431</v>
+        <v>446951.2143100001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>577168.50212</v>
+        <v>577409.83854</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>732104.98569</v>
+        <v>732549.2845500001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>853687.8417800001</v>
+        <v>857803.2520100001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1042220.16143</v>
+        <v>1069342.12771</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1411168.7281</v>
+        <v>1498503.19327</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1808215.23046</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2396580.20036</v>
+        <v>2398238.07586</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3218761.368119999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3230101.43903</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4249071.9</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>5820822.03341</v>
@@ -1622,112 +1613,127 @@
         <v>7130875.33109</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7428140.44572</v>
+        <v>7428944.6677</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8108468.355570001</v>
+        <v>8110293.57029</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8441102.081900001</v>
+        <v>8450881.93447</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>7802839.98762</v>
+        <v>8951208.587539999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>9310608.640999999</v>
+        <v>10670826.73541</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>12640676.22989</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>15099628.37306</v>
+        <v>15101945.66946</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>18079723.196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18115085.46304</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>18957931.72</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>5698776.84651</v>
+        <v>5698776.846510001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5661224.576789999</v>
+        <v>5661224.576790001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>6398631.659540001</v>
+        <v>6398643.506709999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>6132500.722060001</v>
+        <v>6133718.04346</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>6691428.87288</v>
+        <v>6698463.874810001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>7592121.301049998</v>
+        <v>7615817.56182</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>8586732.676819999</v>
+        <v>8957458.924180001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>9007771.540430002</v>
+        <v>10330122.07461</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>11081655.15214</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>13315861.86816</v>
+        <v>13340222.86241</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>15365680.57763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15454552.68117</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>17836580.221</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>4267365.63247</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3646384.736750001</v>
+        <v>3646384.73675</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3747426.04742</v>
+        <v>3747426.792660001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5260294.134710001</v>
+        <v>5260277.99439</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5547679.713250001</v>
+        <v>5551738.86661</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5898940.08939</v>
+        <v>5899139.62474</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6045411.70815</v>
+        <v>5320790.22016</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4819614.04763</v>
+        <v>5224843.724850001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7710883.90871</v>
+        <v>7710883.908709998</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>9600253.017069999</v>
+        <v>9600031.50159</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>13896268.31847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13953564.68135</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>21477288.509</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>5676515.48071</v>
@@ -1736,37 +1742,42 @@
         <v>5689240.9497</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>7786853.651080001</v>
+        <v>7786853.65108</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7867381.170499999</v>
+        <v>7867588.693830001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>12667352.65231</v>
+        <v>12671914.10141</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>9664070.98484</v>
+        <v>9667973.707519999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12283718.65575</v>
+        <v>16557252.50251</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>19272352.32331</v>
+        <v>56243925.92857</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>35327444.00558</v>
+        <v>35327444.00558001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>85546111.09669</v>
+        <v>85554287.35216001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>43425290.13625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>43458535.54935001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>60404839.508</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>341758.0266999999</v>
@@ -1778,19 +1789,19 @@
         <v>240351.53039</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>574879.96075</v>
+        <v>574879.9607499999</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>244600.8433</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>140529.01979</v>
+        <v>140644.33062</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>69636.38026999999</v>
+        <v>75377.81551999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>164717.91665</v>
+        <v>170202.83145</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>149828.66974</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>190209.20299</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>112098.239</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1008985.83418</v>
@@ -1826,13 +1842,13 @@
         <v>374826.65019</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1154538.85928</v>
+        <v>1159128.24704</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>185957.72862</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>939705.81964</v>
+        <v>939705.8196400001</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>3136401.17833</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>2926756.34768</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3620272.722</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>979301.08397</v>
@@ -1856,34 +1877,39 @@
         <v>1339436.20487</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1376948.16872</v>
+        <v>1377040.3962</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1170653.29614</v>
+        <v>1170790.16034</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1555038.12023</v>
+        <v>1555831.55697</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1227496.5046</v>
+        <v>1326694.84428</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>988178.8521299998</v>
+        <v>1079070.70671</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1746037.07856</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2265649.34755</v>
+        <v>2265676.45143</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2423610.400460001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2428061.43632</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2089710.065</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>143174.09613</v>
@@ -1895,58 +1921,63 @@
         <v>102188.32729</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>115746.74201</v>
+        <v>115777.82769</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>137030.07762</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>125457.55484</v>
+        <v>125507.19453</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>134816.8564</v>
+        <v>134898.46207</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>158293.06282</v>
+        <v>158440.5023</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>103035.33282</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>127115.72859</v>
+        <v>127122.14145</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>331196.18626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>331335.74579</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>344294.967</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>656595.8255299998</v>
+        <v>656595.8255299999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>703446.3500099999</v>
+        <v>703446.3500100001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>951791.4242099999</v>
+        <v>951791.42421</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>716633.98309</v>
+        <v>716711.4000199999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>753795.0769399998</v>
+        <v>753795.57413</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>546535.1912999999</v>
+        <v>547100.5155400001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>627339.3035400001</v>
+        <v>701013.0301699999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>931609.84259</v>
+        <v>1046915.32205</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>1002982.37871</v>
@@ -1955,13 +1986,18 @@
         <v>1263583.39461</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1194677.63518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1194758.03203</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1108445.065</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>181893.79158</v>
@@ -1976,31 +2012,36 @@
         <v>42150.41452</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>25364.33627000001</v>
+        <v>25364.33627</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>28685.77255</v>
+        <v>28719.99289</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>66049.6412</v>
+        <v>66497.21584</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>29859.52236</v>
+        <v>49254.7647</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>172634.36693</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>465884.8337499999</v>
+        <v>465888.1731900001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>358809.14607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>358833.67545</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>741437.6139999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1695947.29147</v>
@@ -2009,40 +2050,45 @@
         <v>1696822.12163</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2766988.42464</v>
+        <v>2766988.424639999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2438062.68717</v>
+        <v>2438062.87425</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8516530.539189998</v>
+        <v>8520901.8649</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5465507.90382</v>
+        <v>5467717.510719999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6784236.12717</v>
+        <v>10642683.3279</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>14334506.6282</v>
+        <v>51002103.24712</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>28076030.49264999</v>
+        <v>28076030.49265001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>75659277.66286999</v>
+        <v>75667314.54442999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>31943368.09658001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>31962149.12438999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>47070225.09</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>57948.99692999999</v>
+        <v>57948.99693</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>14982.90806</v>
@@ -2054,13 +2100,13 @@
         <v>37126.4207</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>7628.943459999998</v>
+        <v>7628.943459999999</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>5345.87995</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5079.33652</v>
+        <v>5143.01749</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2288.22595</v>
@@ -2069,16 +2115,21 @@
         <v>3240.95982</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>4908.278709999999</v>
+        <v>4908.27871</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>11601.52318</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>28181.63</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>223.86976</v>
@@ -2087,10 +2138,10 @@
         <v>100.6248</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>90.38659999999999</v>
+        <v>90.3866</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>62.91679</v>
+        <v>62.91678999999999</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>34.59449000000001</v>
@@ -2102,22 +2153,27 @@
         <v>277.24723</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>21.21808</v>
+        <v>35.37915</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>931.7496400000001</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>534.4876</v>
+        <v>534.4875999999999</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>592.3606600000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>514.864</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>610686.66446</v>
@@ -2129,79 +2185,89 @@
         <v>748469.89699</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1061501.60427</v>
+        <v>1061508.21043</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1153366.6798</v>
+        <v>1153419.4418</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1421600.91067</v>
+        <v>1421736.09461</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2214248.39954</v>
+        <v>2445539.29497</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2476919.32591</v>
+        <v>2549657.22052</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>3133017.15707</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2499282.27309</v>
+        <v>2499384.79082</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4044469.237190001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4054238.10086</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5289659.252</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>2648489.19359</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2663127.836</v>
+        <v>2663127.836000001</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>4014758.980939999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3353878.83014</v>
+        <v>3354075.53066</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>11039026.79404</v>
+        <v>11042584.7882</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6936542.885630001</v>
+        <v>6938111.700800001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9687690.56216</v>
+        <v>12616616.99802</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>15826231.07838</v>
+        <v>53019937.75861999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>26563407.44458</v>
+        <v>26563407.44457999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>79492293.58068</v>
+        <v>79502254.53033</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>36053088.20431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>36068513.3082</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>54729055.3</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>67705.86808</v>
+        <v>67705.86808000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>81063.90901999999</v>
+        <v>81063.90902000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>100729.83828</v>
@@ -2210,40 +2276,45 @@
         <v>111918.16443</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>128219.63598</v>
+        <v>128221.1614</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>146226.65393</v>
+        <v>146232.00319</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>177377.43617</v>
+        <v>178079.28998</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>91623.23957999999</v>
+        <v>211176.06544</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>189199.31218</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>123987.77295</v>
+        <v>124021.13454</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>126771.75758</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>126787.26002</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>151084.241</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>771749.7508799999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>824102.4543999998</v>
+        <v>824102.4544</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>787199.0497499999</v>
+        <v>787199.0497500001</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>778123.4027199999</v>
@@ -2252,28 +2323,33 @@
         <v>932518.3724900001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1102972.84089</v>
+        <v>1102982.84089</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1093770.38474</v>
+        <v>1356711.6243</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>900424.96225</v>
+        <v>1333076.78081</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1290345.97029</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1512115.74202</v>
+        <v>1512190.09796</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1583544.87468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1583183.68393</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1800386.529</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4058.64325</v>
@@ -2282,22 +2358,22 @@
         <v>12584.27464</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3042.966730000001</v>
+        <v>3042.96673</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2864.610619999999</v>
+        <v>2864.61062</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>33156.50035</v>
+        <v>33156.50034999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>5566.26143</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4508.585099999999</v>
+        <v>4508.63588</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>12891.18303</v>
+        <v>13634.71023</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>28519.86686</v>
@@ -2306,13 +2382,18 @@
         <v>41968.01635</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>89025.24136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>89025.62824999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>140503.178</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1679267.56245</v>
@@ -2324,34 +2405,39 @@
         <v>2865077.73903</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2204037.21724</v>
+        <v>2204211.39075</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9704078.92492</v>
+        <v>9707592.604060004</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5420470.71929</v>
+        <v>5422023.96323</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8164253.36046</v>
+        <v>10822236.5376</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>14217703.00643</v>
+        <v>50855994.4387</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>24826074.96514</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>76922127.29754999</v>
+        <v>76931942.69929001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>33597820.87709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>33612645.3341</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>51924685.624</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1428.86687</v>
@@ -2360,7 +2446,7 @@
         <v>1927.9679</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5112.16036</v>
+        <v>5112.160360000001</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>5743.661659999999</v>
@@ -2369,10 +2455,10 @@
         <v>5065.92319</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>7174.43027</v>
+        <v>7174.430269999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>5181.45394</v>
+        <v>5191.231589999999</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>2841.51249</v>
@@ -2381,22 +2467,27 @@
         <v>2215.36293</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>5074.652859999999</v>
+        <v>5074.75111</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>8216.107530000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>8216.107529999997</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>11072.342</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>84.11575999999999</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>59.83735</v>
+        <v>59.83735000000001</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>36.00369999999999</v>
@@ -2411,7 +2502,7 @@
         <v>23.36334</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>173.40899</v>
+        <v>18.46013</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>21.87356</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>83.34824999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>308.301</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>124194.3863</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>154834.1792700001</v>
+        <v>154834.17927</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>253561.22309</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>251157.75869</v>
+        <v>251180.2857</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>235973.06078</v>
+        <v>236015.85038</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>254108.6164800001</v>
+        <v>254108.83845</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>242425.93276</v>
+        <v>249871.21854</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>600725.30104</v>
+        <v>603192.3773900002</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>227047.1968</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>886991.94119</v>
+        <v>887029.6733200001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>647625.99782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>648571.94612</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>701015.085</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1745712.3809</v>
@@ -2480,232 +2581,262 @@
         <v>2662266.1582</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1989612.0998</v>
+        <v>1989741.66688</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2187896.97089</v>
+        <v>2188111.53675</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2196876.85092</v>
+        <v>2198151.69582</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3562366.92577</v>
+        <v>5036620.3106</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6623043.998749999</v>
+        <v>7216393.906640001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>10669253.47351</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10788768.27529</v>
+        <v>10789308.95766</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>9420207.070989998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9423318.180709999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>8515122.184</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1280174.0817</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>969056.7079400001</v>
+        <v>969056.7079400002</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>1924337.28889</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1292368.45161</v>
+        <v>1292498.01869</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1717058.51434</v>
+        <v>1717273.0802</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1577105.85564</v>
+        <v>1578247.37961</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1850414.3989</v>
+        <v>3324140.666269999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4020700.84048</v>
+        <v>4614050.36373</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>7287842.809209999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9290843.51897</v>
+        <v>9291372.348479999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6866857.387169999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6869684.526579999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5966293.242</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>465538.2992000001</v>
+        <v>465538.2991999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>421864.37277</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>737928.86931</v>
+        <v>737928.8693099997</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>697243.6481899999</v>
+        <v>697243.64819</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>470838.45655</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>619770.9952799999</v>
+        <v>619904.3162100001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1711952.52687</v>
+        <v>1712479.64433</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2602343.15827</v>
+        <v>2602343.54291</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>3381410.6643</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1497924.75632</v>
+        <v>1497936.60918</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2553349.68382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2553633.65413</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2548828.942</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5549679.53869</v>
+        <v>5549679.538689999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5281576.769739999</v>
+        <v>5281576.76974</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>4857254.559359999</v>
+        <v>4857255.304599999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7784184.375270001</v>
+        <v>7784049.490680001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4988108.600629999</v>
+        <v>4992956.643069999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6429591.337679999</v>
+        <v>6430849.935640001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5079072.875970001</v>
+        <v>4224805.41405</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1642691.29381</v>
+        <v>1232437.98816</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>5805666.996200001</v>
+        <v>5805666.9962</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4865302.25779</v>
+        <v>4862755.365760001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>11848263.17942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>11920268.74179</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>18637950.533</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>762798.77257</v>
+        <v>762798.7725699999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>727476.1563399999</v>
+        <v>727476.15634</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>1297539.18677</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1264787.81557</v>
+        <v>1264877.57733</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1006596.26905</v>
+        <v>1007216.63629</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1489995.84556</v>
+        <v>1490748.19132</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2207818.12349</v>
+        <v>2256435.90123</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1311941.83746</v>
+        <v>1522736.93093</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2321502.38728</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2256804.07921</v>
+        <v>2257069.771660001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4732251.22049</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4734022.29515</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4238292.941</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>91323.64792999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>53190.27728</v>
+        <v>53190.27727999999</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>105047.49206</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>79653.84744</v>
+        <v>79653.85034</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>60980.67882</v>
+        <v>61497.79962</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>60482.54354</v>
+        <v>60482.54669000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>42606.29562</v>
+        <v>80700.47529999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>67110.28181999999</v>
+        <v>78948.87565</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>181830.58841</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>141196.75723</v>
+        <v>141197.02509</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>137841.37048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>138704.31212</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>186467.918</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>671475.1246400001</v>
+        <v>671475.1246399998</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>674285.8790599999</v>
@@ -2714,73 +2845,83 @@
         <v>1192491.69471</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1185133.96813</v>
+        <v>1185223.72699</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>945615.5902300001</v>
+        <v>945718.83667</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1429513.30202</v>
+        <v>1430265.64463</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2165211.82787</v>
+        <v>2175735.42593</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1244831.55564</v>
+        <v>1443788.05528</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2139671.79887</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2115607.32198</v>
+        <v>2115872.74657</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4594409.85001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4595317.983030001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4051825.023</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>569091.7571299999</v>
+        <v>569091.75713</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>615486.9121699999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2756284.588359999</v>
+        <v>2756284.58836</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>655273.99234</v>
+        <v>655413.04424</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>800573.47909</v>
+        <v>800678.5254700001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1555898.18469</v>
+        <v>1558174.09206</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1005592.33589</v>
+        <v>1032914.36078</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2072322.57888</v>
+        <v>2175143.79006</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1327853.05482</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2471554.92378</v>
+        <v>2472955.57331</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2917564.08705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2939922.67945</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3403095.556</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1502.82419</v>
@@ -2792,7 +2933,7 @@
         <v>2280.61449</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4182.107739999999</v>
+        <v>4182.10774</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>3244.49361</v>
@@ -2801,25 +2942,30 @@
         <v>2636.03464</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8053.420190000001</v>
+        <v>8053.42019</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2570.85405</v>
+        <v>2570.854399999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>4933.244439999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6397.85321</v>
+        <v>6398.23117</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>11984.1786</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>11989.27287</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6729.828</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>135844.80734</v>
@@ -2834,31 +2980,36 @@
         <v>81843.38494000002</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>94215.53299000001</v>
+        <v>94217.31715999998</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>133105.35171</v>
+        <v>133105.77831</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>138970.36831</v>
+        <v>139763.43864</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>249731.1354</v>
+        <v>251054.84878</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>216780.6956</v>
+        <v>216780.6956000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>236400.91456</v>
+        <v>236405.80768</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>773681.6982400001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>780007.6948400001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>364506.386</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>431744.1256</v>
@@ -2870,73 +3021,83 @@
         <v>2443782.58935</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>569248.49966</v>
+        <v>569387.5515600001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>703113.4524900002</v>
+        <v>703216.7147000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1420156.79834</v>
+        <v>1422432.27911</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>858568.54739</v>
+        <v>885097.5019499999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1820020.58943</v>
+        <v>1921518.08688</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1106139.11478</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2228756.156010001</v>
+        <v>2230151.53446</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2131898.21021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2147925.71174</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3031859.342</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>5743386.55413</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5393566.013910001</v>
+        <v>5393566.01391</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3398509.15777</v>
+        <v>3398509.90301</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8393698.1985</v>
+        <v>8393514.023770001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5194131.390589999</v>
+        <v>5199494.753890001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6363688.998550001</v>
+        <v>6363424.0349</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>6281298.66357</v>
+        <v>5448326.954500001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>882310.5523900004</v>
+        <v>580031.12903</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>6799316.328660002</v>
+        <v>6799316.32866</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4650551.41322</v>
+        <v>4646869.564110001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>13662950.31286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>13714368.35749</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>19473147.918</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1431025.72601</v>
@@ -2948,70 +3109,78 @@
         <v>1400444.75627</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1542746.97606</v>
+        <v>1542760.65788</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1245395.32686</v>
+        <v>1246321.32137</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1609799.01565</v>
+        <v>1610778.61805</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1257503.25381</v>
+        <v>1267909.86636</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1039741.06182</v>
+        <v>1067960.20579</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1768377.99782</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1821918.8533</v>
+        <v>1824064.21605</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2078751.69237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2099551.11944</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2822121.425</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>4312360.82812</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3914754.130879999</v>
+        <v>3914754.130880001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1998064.401499999</v>
+        <v>1998065.14674</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6850951.222440001</v>
+        <v>6850753.365890001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3948736.06373</v>
+        <v>3953173.432519999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4753889.982899999</v>
+        <v>4752645.41685</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>5023795.40976</v>
+        <v>4180417.08814</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-157430.5094300002</v>
+        <v>-487929.0767599999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>5030938.330839998</v>
+        <v>5030938.33084</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2828632.559919999</v>
+        <v>2822805.34806</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>11584198.62049</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>11614817.23805</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>16651026.493</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>11362</v>
@@ -3038,34 +3210,37 @@
         <v>12294</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>13245</v>
+        <v>13246</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>13780</v>
+        <v>13791</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>15089</v>
+        <v>15124</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>16286</v>
+        <v>16353</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>17390</v>
+        <v>17568</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>18745</v>
+        <v>18916</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>20376</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>21313</v>
+        <v>22034</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>22599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>24169</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>26962</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>